--- a/com.chase/src/main/resources/ChaseTestData.xlsx
+++ b/com.chase/src/main/resources/ChaseTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdosa\IdeaProjects\Selenium_Framework_Team2\com.chase\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86739C2C-9806-423C-A567-00FB94F0987E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B45F5-117B-4C8D-97F0-A0D35503FFD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
+    <workbookView xWindow="5115" yWindow="720" windowWidth="15375" windowHeight="7005" firstSheet="2" activeTab="3" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
   </bookViews>
   <sheets>
     <sheet name="BusinessSolutions" sheetId="2" r:id="rId1"/>
     <sheet name="CarouselLinksTitles" sheetId="3" r:id="rId2"/>
     <sheet name="TabsCompareAccounts" sheetId="6" r:id="rId3"/>
+    <sheet name="FirstBankingLinks" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>An all-in-one business checking solution</t>
   </si>
@@ -82,6 +83,15 @@
   <si>
     <t>Premium
 updates page content</t>
+  </si>
+  <si>
+    <t>Chase First Banking: a debit card for teens and kids, managed by parents</t>
+  </si>
+  <si>
+    <t>FAQs | Chase First Banking: child-friendly bank account opened by parents</t>
+  </si>
+  <si>
+    <t>Chase First Banking vs. Chase High School Checking student accounts | Chase</t>
   </si>
 </sst>
 </file>
@@ -471,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7494D8B3-9FC9-4CAC-A07A-81A91BD1621E}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -599,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB492D8-F205-4B44-A119-44F47A29C50F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -631,4 +641,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA1DC26-0AF3-4993-9A5D-6AD2C6B2DE93}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.chase/src/main/resources/ChaseTestData.xlsx
+++ b/com.chase/src/main/resources/ChaseTestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdosa\IdeaProjects\Selenium_Framework_Team2\com.chase\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B45F5-117B-4C8D-97F0-A0D35503FFD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACFD48-5E52-4819-8400-A1CC0C4B982F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="720" windowWidth="15375" windowHeight="7005" firstSheet="2" activeTab="3" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
+    <workbookView xWindow="5115" yWindow="720" windowWidth="15375" windowHeight="7005" firstSheet="3" activeTab="4" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
   </bookViews>
   <sheets>
     <sheet name="BusinessSolutions" sheetId="2" r:id="rId1"/>
     <sheet name="CarouselLinksTitles" sheetId="3" r:id="rId2"/>
     <sheet name="TabsCompareAccounts" sheetId="6" r:id="rId3"/>
     <sheet name="FirstBankingLinks" sheetId="7" r:id="rId4"/>
+    <sheet name="InvalidSignIn" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>An all-in-one business checking solution</t>
   </si>
@@ -93,15 +94,47 @@
   <si>
     <t>Chase First Banking vs. Chase High School Checking student accounts | Chase</t>
   </si>
+  <si>
+    <t>jack@someemail.com</t>
+  </si>
+  <si>
+    <t>dle987^%$</t>
+  </si>
+  <si>
+    <t>bill@someemail.com</t>
+  </si>
+  <si>
+    <t>dewf&amp;^*3</t>
+  </si>
+  <si>
+    <t>nicki@someemail.com</t>
+  </si>
+  <si>
+    <t>dpo7%0H</t>
+  </si>
+  <si>
+    <t>denise@someemail.com</t>
+  </si>
+  <si>
+    <t>dwo&amp;^!de</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,16 +157,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA1DC26-0AF3-4993-9A5D-6AD2C6B2DE93}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
@@ -681,4 +717,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA76C91-C8B8-4B2D-99BF-043AAEFA9389}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9D51CA14-D672-496E-AE4C-681A2BAAA9F5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{CBE20C47-3D42-46D7-B1DC-BB6F1680DE46}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{1E6A2D85-96A1-4A82-AC65-343325FEE6DE}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{54551692-5E28-4056-B668-2CAF1CC1BE2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>